--- a/biology/Botanique/Maytenus/Maytenus.xlsx
+++ b/biology/Botanique/Maytenus/Maytenus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Maytenus est un genre de plantes appartenant à la famille des Celastraceae.
 Le genre Maytenus est endémique de l'Amérique centrale à l'Amérique du Sud, avec quelque 70 espèces dont deux sont chiliennes des climats tempérées : 
@@ -514,7 +526,9 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Maytenus abbottii, A.E.van Wyk
 Maytenus addat, (Loes.) Sebsebe
@@ -548,7 +562,7 @@
 Maytenus stipitata, Lundell
 Maytenus vitis-idaea
 Maytenus williamsii, A. Molina
-Selon Catalogue of Life                                   (23 février 2018)[1] :
+Selon Catalogue of Life                                   (23 février 2018) :
 Maytenus acanthophylla Reiss.
 Maytenus agostinii J. Steyermark
 Maytenus alaternoides Reiss.
@@ -736,7 +750,9 @@
           <t>Remarque</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Bois à poudre, appelé un temps Maytenus pyria, a changé de genre en 2006 et a pris le nom de Gymnosporia pyria.
 </t>
